--- a/va_facility_data_2025-02-20/Lawrence County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawrence%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lawrence County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lawrence%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf8955581dea24402ba5b811b413ad704"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3cb608aaea7248fcb4cd1efb9e94f344"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbe0a16e3770d400ebdc4e3d7bf2b9ce3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rce27e3c9a95449afbaf0fe841b0ffded"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbb9f6cacbf334a799ad2aced961a0177"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1759bf4b2d444b019f9209224818a91a"/>
   </x:sheets>
 </x:workbook>
 </file>
